--- a/Parametrages.xlsx
+++ b/Parametrages.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bastien.migliorati\Documents\@_PYTHON\Pdf_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8A110F-797E-46AF-80A6-4501809715E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF130B0-94A4-42F7-ABB7-4AE7ABEBB260}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFBBB52E-7E41-47A0-A82F-F3263E6A4306}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AFBBB52E-7E41-47A0-A82F-F3263E6A4306}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Params!$A$1:$G$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Params!$A$1:$G$20</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="23">
   <si>
     <t>BOITES</t>
   </si>
@@ -48,65 +48,83 @@
     <t>EXCLURE</t>
   </si>
   <si>
-    <t>NOMBRE _</t>
-  </si>
-  <si>
-    <t>Si le champ n'est pas utilisé, remplir : NON UTILISE</t>
-  </si>
-  <si>
-    <t>"2"</t>
-  </si>
-  <si>
-    <t>"5"</t>
-  </si>
-  <si>
-    <t>NRO</t>
-  </si>
-  <si>
-    <t>POSE</t>
-  </si>
-  <si>
-    <t>BRP</t>
-  </si>
-  <si>
-    <t>_BR</t>
-  </si>
-  <si>
-    <t>BRD</t>
-  </si>
-  <si>
-    <t>/IMMEUBLE</t>
-  </si>
-  <si>
-    <t>BPI</t>
-  </si>
-  <si>
     <t>NON UTILISE</t>
   </si>
   <si>
-    <t>BRI</t>
-  </si>
-  <si>
-    <t>BRA</t>
-  </si>
-  <si>
-    <t>BRF</t>
-  </si>
-  <si>
-    <t>FO</t>
-  </si>
-  <si>
-    <t>LOVE</t>
-  </si>
-  <si>
-    <t>/</t>
+    <t>Responsable :</t>
+  </si>
+  <si>
+    <t>Préfixes nommage Boites :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Si le champ n'est 
+pas utilisé, ecrire : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NON UTILISE</t>
+    </r>
+  </si>
+  <si>
+    <t>Préfixes  nommage Cables :</t>
+  </si>
+  <si>
+    <t>Catégorie tâche boite :</t>
+  </si>
+  <si>
+    <t>Catégorie tâche cable :</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>(Syane) Detection PR ?</t>
+  </si>
+  <si>
+    <t>(Syane) Prefixes_plans boites</t>
+  </si>
+  <si>
+    <t>romain.letourneau@sogetrel.fr</t>
+  </si>
+  <si>
+    <t>Mode multipage</t>
+  </si>
+  <si>
+    <t>Liste de contrôle boites</t>
+  </si>
+  <si>
+    <t>Liste de contrôles cables</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>Câble Syno</t>
+  </si>
+  <si>
+    <t>Boite Syno</t>
+  </si>
+  <si>
+    <t>BPESYA</t>
+  </si>
+  <si>
+    <t>CABSYA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +156,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,12 +186,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -312,71 +362,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -453,11 +438,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,16 +498,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -507,9 +525,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,82 +537,92 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,6 +634,7 @@
   <colors>
     <mruColors>
       <color rgb="FFFF9999"/>
+      <color rgb="FF66FFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -919,21 +945,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F250B319-AC19-49FF-9E5C-60BC0E14430A}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="3.21875" style="33" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" customWidth="1"/>
+    <col min="11" max="11" width="1.77734375" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,507 +971,916 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+    </row>
+    <row r="2" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+    </row>
+    <row r="3" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+    </row>
+    <row r="4" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="M4" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+    </row>
+    <row r="5" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="M5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+    </row>
+    <row r="6" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+    </row>
+    <row r="7" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+    </row>
+    <row r="8" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="38" t="s">
+      <c r="M8" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+    </row>
+    <row r="9" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+    </row>
+    <row r="11" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="M11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+    </row>
+    <row r="12" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+    </row>
+    <row r="13" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44"/>
-    </row>
-    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="M13" s="32"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+    </row>
+    <row r="14" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-    </row>
-    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="44"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="44"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
+      <c r="M14" s="32"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+    </row>
+    <row r="15" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+    </row>
+    <row r="16" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+    </row>
+    <row r="17" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+    </row>
+    <row r="18" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+    </row>
+    <row r="19" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+    </row>
+    <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+    </row>
+    <row r="21" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H11:K20"/>
-    <mergeCell ref="H1:K10"/>
+  <mergeCells count="1">
+    <mergeCell ref="H1:K20"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M8 M11" xr:uid="{CBD01685-EBEE-4F90-B46D-EAE0B1C5B76A}">
+      <formula1>"oui,non"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
